--- a/data/case1/13/Qlm1_14.xlsx
+++ b/data/case1/13/Qlm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.15751062931927606</v>
+        <v>-0.14696094660155978</v>
       </c>
       <c r="B1" s="0">
-        <v>0.15743981692300935</v>
+        <v>0.14690035879450392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.13533408291475535</v>
+        <v>-0.12479585091835865</v>
       </c>
       <c r="B2" s="0">
-        <v>0.13501427534668853</v>
+        <v>0.12454213909045375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.085313979964181996</v>
+        <v>-0.063507141423812641</v>
       </c>
       <c r="B3" s="0">
-        <v>0.084969521525845693</v>
+        <v>0.063218316575090583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.076969521549347775</v>
+        <v>-0.055218316623916408</v>
       </c>
       <c r="B4" s="0">
-        <v>0.076681605390787055</v>
+        <v>0.054947996580853697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.073681605403271178</v>
+        <v>-0.051947996605709257</v>
       </c>
       <c r="B5" s="0">
-        <v>0.072720897516095562</v>
+        <v>0.051046937150625027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.020193635404876176</v>
+        <v>-0.024881430387829084</v>
       </c>
       <c r="B6" s="0">
-        <v>0.019982042230433095</v>
+        <v>0.024650921759185707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.009982042262656865</v>
+        <v>-0.0146509218251758</v>
       </c>
       <c r="B7" s="0">
-        <v>0.009942630384232487</v>
+        <v>0.014606991015348569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>5.736958325375241e-05</v>
+        <v>-0.0046069910822463811</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.00010050458737209667</v>
+        <v>0.0045573042672240049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0021005045742756856</v>
+        <v>-0.0025573042935937984</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0021283064199311141</v>
+        <v>0.0025249380246918918</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0041283064068924347</v>
+        <v>-0.00052493805139519623</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0041291370722529308</v>
+        <v>0.00052476133849665985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.00712913705679874</v>
+        <v>-0.02437902214033727</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0071306946714937425</v>
+        <v>0.024353565187637649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.010630694654880202</v>
+        <v>-0.020853565222766601</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.010643384745774309</v>
+        <v>0.02066545821033472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.01716351030075991</v>
+        <v>-0.017165458248634913</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017078982550236432</v>
+        <v>0.017079788591179756</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090789825775825506</v>
+        <v>-0.0090797886534614847</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090511892110161085</v>
+        <v>0.0090517927421558397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080511892215620051</v>
+        <v>-0.0080517927689829349</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080332260632447472</v>
+        <v>0.0080337078951382423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060332260764712764</v>
+        <v>-0.006033707927612042</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003513648627834</v>
+        <v>0.0060034356699847358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040035136621829892</v>
+        <v>-0.0040034357032023848</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999814828158</v>
+        <v>0.0039999999562976285</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016105734023213358</v>
+        <v>-0.016104507907680699</v>
       </c>
       <c r="B18" s="0">
-        <v>0.01609169874232208</v>
+        <v>0.016091433885488726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091698752576541</v>
+        <v>-0.012091433906887161</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012017068478189064</v>
+        <v>0.012016770121363596</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080170684891278654</v>
+        <v>-0.0080167701443532025</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056941216088973</v>
+        <v>0.0080056944840674049</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056941326698237</v>
+        <v>-0.0040056945072821648</v>
       </c>
       <c r="B21" s="0">
-        <v>0.003999999988841374</v>
+        <v>0.0039999999765898409</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045700295395159074</v>
+        <v>-0.057034997693074629</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045490286824602322</v>
+        <v>0.056742156459280935</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040490286840455525</v>
+        <v>-0.040491250574224757</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097364007332992</v>
+        <v>0.040097485066238114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097364060998935</v>
+        <v>-0.020097485180484931</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999945641278</v>
+        <v>0.01999999988424328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.050527262123855721</v>
+        <v>-0.024165506787170443</v>
       </c>
       <c r="B25" s="0">
-        <v>0.050494697738177052</v>
+        <v>0.0241444851581889</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.011958228986312491</v>
+        <v>-0.021644485185449369</v>
       </c>
       <c r="B26" s="0">
-        <v>0.011939431101371412</v>
+        <v>0.021620520332094273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0094394311157239841</v>
+        <v>-0.03403203307919167</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0093471438748546909</v>
+        <v>0.033920064969370944</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0073471438884604723</v>
+        <v>-0.031920064997759567</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0072985074144309436</v>
+        <v>0.031855015183148261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.011850435765528466</v>
+        <v>-0.024855015239468869</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.011852521611194433</v>
+        <v>0.024843988947177209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0014358713661404288</v>
+        <v>0.035156010723502717</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0014637830030261867</v>
+        <v>-0.035241731465617487</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.0084637829772535866</v>
+        <v>0.042241731411316152</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.0084658277552147609</v>
+        <v>-0.042299004918849192</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.018465827722236483</v>
+        <v>-0.0040012889015912378</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.018484923451845603</v>
+        <v>0.0039999999619944049</v>
       </c>
     </row>
   </sheetData>
